--- a/Running projects/BAF Head Office/Final Bill.xlsx
+++ b/Running projects/BAF Head Office/Final Bill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\BAF Head Office\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7560975-BE6E-406D-A7DF-50F6EDB662E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A965532-B811-49EC-B703-4A5C781F6910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project comp" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="137">
   <si>
     <t>S.NO</t>
   </si>
@@ -469,6 +469,12 @@
   </si>
   <si>
     <t>BANK AL-FALAH HEAD OFFICE I I CHUDRIGAR ROAD KARACHI</t>
+  </si>
+  <si>
+    <t>Received on 11 sept 24</t>
+  </si>
+  <si>
+    <t>retention remaining</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1441,18 +1447,84 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1462,36 +1534,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1542,51 +1584,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2344,9 +2341,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD04312-8B29-4B87-8305-FB8AC5C88198}">
-  <dimension ref="A9:H34"/>
+  <dimension ref="A9:H31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -2674,182 +2671,127 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="152"/>
+      <c r="E9" s="116"/>
     </row>
     <row r="12" spans="1:5" s="13" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="131"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
+      <c r="A12" s="123"/>
+      <c r="B12" s="123"/>
+      <c r="C12" s="123"/>
+      <c r="D12" s="123"/>
+      <c r="E12" s="123"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="153" t="s">
+      <c r="A13" s="122" t="s">
         <v>134</v>
       </c>
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
+      <c r="B13" s="122"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
     </row>
     <row r="14" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="149"/>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="149"/>
+      <c r="A14" s="124"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="124"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="124"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="149"/>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-      <c r="E15" s="149"/>
+      <c r="A15" s="124"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="124"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="124"/>
     </row>
     <row r="16" spans="1:5" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="150"/>
-      <c r="B16" s="150"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="150"/>
+      <c r="A16" s="124"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
     </row>
     <row r="17" spans="1:8" s="13" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="151"/>
-      <c r="B17" s="151"/>
-      <c r="C17" s="151"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="151"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="151"/>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
     </row>
     <row r="19" spans="1:8" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="154"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
+      <c r="A19" s="117"/>
+      <c r="B19" s="126"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="126"/>
+      <c r="E19" s="126"/>
     </row>
     <row r="20" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="156"/>
-      <c r="B20" s="157"/>
-      <c r="C20" s="157"/>
-      <c r="D20" s="157"/>
-      <c r="E20" s="157"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
     </row>
     <row r="21" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="156"/>
-      <c r="B21" s="157"/>
-      <c r="C21" s="157"/>
-      <c r="D21" s="157"/>
-      <c r="E21" s="157"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="125"/>
     </row>
     <row r="22" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="156"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
+      <c r="A22" s="118"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="125"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="158"/>
-      <c r="B23" s="158"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="159"/>
       <c r="H23" s="90"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="158"/>
-      <c r="B24" s="158"/>
-      <c r="C24" s="158"/>
-      <c r="D24" s="158"/>
-      <c r="E24" s="159"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="158"/>
-      <c r="B25" s="158"/>
-      <c r="C25" s="158"/>
-      <c r="D25" s="158"/>
-      <c r="E25" s="159"/>
-    </row>
     <row r="26" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="160"/>
-      <c r="B26" s="160"/>
-      <c r="C26" s="160"/>
-      <c r="D26" s="158"/>
-      <c r="E26" s="161"/>
+      <c r="A26" s="127"/>
+      <c r="B26" s="127"/>
+      <c r="C26" s="127"/>
+      <c r="E26" s="119"/>
     </row>
     <row r="27" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="162"/>
-      <c r="B27" s="162"/>
-      <c r="C27" s="162"/>
-      <c r="D27" s="158"/>
-      <c r="E27" s="161"/>
+      <c r="A27" s="120"/>
+      <c r="B27" s="120"/>
+      <c r="C27" s="120"/>
+      <c r="E27" s="119"/>
     </row>
     <row r="28" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="162"/>
-      <c r="B28" s="162"/>
-      <c r="C28" s="162"/>
-      <c r="D28" s="158"/>
-      <c r="E28" s="161"/>
+      <c r="A28" s="120"/>
+      <c r="B28" s="120"/>
+      <c r="C28" s="120"/>
+      <c r="E28" s="119"/>
     </row>
     <row r="29" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="158"/>
-      <c r="B29" s="158"/>
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="163"/>
+      <c r="E29" s="121"/>
     </row>
     <row r="30" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="158"/>
-      <c r="B30" s="158"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="163"/>
+      <c r="E30" s="121"/>
     </row>
     <row r="31" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="158"/>
-      <c r="B31" s="158"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="163"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="158"/>
-      <c r="B32" s="158"/>
-      <c r="C32" s="158"/>
-      <c r="D32" s="158"/>
-      <c r="E32" s="159"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="158"/>
-      <c r="B33" s="158"/>
-      <c r="C33" s="158"/>
-      <c r="D33" s="158"/>
-      <c r="E33" s="159"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="158"/>
-      <c r="B34" s="158"/>
-      <c r="C34" s="158"/>
-      <c r="D34" s="158"/>
-      <c r="E34" s="159"/>
+      <c r="E31" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A12:E12"/>
     <mergeCell ref="A14:E16"/>
     <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2860,10 +2802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F42733-C9E5-4559-ABB7-F693FF2F4291}">
-  <dimension ref="A12:J51"/>
+  <dimension ref="A12:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3193,8 +3135,8 @@
   </cols>
   <sheetData>
     <row r="12" spans="1:5" s="97" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="126"/>
-      <c r="B12" s="126"/>
+      <c r="A12" s="130"/>
+      <c r="B12" s="130"/>
       <c r="C12" s="95" t="s">
         <v>109</v>
       </c>
@@ -3203,8 +3145,8 @@
       </c>
     </row>
     <row r="13" spans="1:5" s="97" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="127"/>
-      <c r="B13" s="127"/>
+      <c r="A13" s="131"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="95" t="s">
         <v>110</v>
       </c>
@@ -3242,36 +3184,36 @@
       <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:8" s="13" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="128" t="s">
+      <c r="A18" s="132" t="s">
         <v>115</v>
       </c>
-      <c r="B18" s="128"/>
-      <c r="C18" s="128"/>
-      <c r="D18" s="128"/>
+      <c r="B18" s="132"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="132"/>
     </row>
     <row r="19" spans="1:8" s="13" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:8" s="13" customFormat="1" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="129" t="s">
+      <c r="A20" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
     </row>
     <row r="21" spans="1:8" s="13" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="18"/>
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:8" s="13" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="130" t="s">
+      <c r="A22" s="134" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
+      <c r="B22" s="134"/>
+      <c r="C22" s="134"/>
+      <c r="D22" s="134"/>
     </row>
     <row r="23" spans="1:8" s="13" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="102"/>
@@ -3283,46 +3225,46 @@
       <c r="A24" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="135" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="118"/>
+      <c r="C24" s="136"/>
       <c r="D24" s="71" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="103"/>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123"/>
+      <c r="B25" s="137"/>
+      <c r="C25" s="138"/>
       <c r="D25" s="104"/>
     </row>
     <row r="26" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="B26" s="115" t="s">
+      <c r="B26" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="116"/>
+      <c r="C26" s="129"/>
       <c r="D26" s="104">
         <v>29896814</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="103"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="125"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="140"/>
       <c r="D27" s="104"/>
     </row>
     <row r="28" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="B28" s="115" t="s">
+      <c r="B28" s="128" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="116"/>
+      <c r="C28" s="129"/>
       <c r="D28" s="105">
         <f>D26*30%</f>
         <v>8969044.1999999993</v>
@@ -3330,8 +3272,8 @@
     </row>
     <row r="29" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="103"/>
-      <c r="B29" s="122"/>
-      <c r="C29" s="123"/>
+      <c r="B29" s="137"/>
+      <c r="C29" s="138"/>
       <c r="D29" s="105"/>
       <c r="H29" s="90"/>
     </row>
@@ -3339,10 +3281,10 @@
       <c r="A30" s="103" t="s">
         <v>120</v>
       </c>
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="128" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="116"/>
+      <c r="C30" s="129"/>
       <c r="D30" s="104">
         <f>D28*70%</f>
         <v>6278330.9399999995</v>
@@ -3353,10 +3295,10 @@
       <c r="A31" s="103" t="s">
         <v>122</v>
       </c>
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="128" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="116"/>
+      <c r="C31" s="129"/>
       <c r="D31" s="106">
         <v>2340420</v>
       </c>
@@ -3366,10 +3308,10 @@
       <c r="A32" s="103" t="s">
         <v>124</v>
       </c>
-      <c r="B32" s="115" t="s">
+      <c r="B32" s="128" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="116"/>
+      <c r="C32" s="129"/>
       <c r="D32" s="104">
         <f>D31*15%</f>
         <v>351063</v>
@@ -3378,17 +3320,17 @@
     </row>
     <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="71"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="118"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136"/>
       <c r="D33" s="108"/>
       <c r="G33" s="107"/>
     </row>
     <row r="34" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="71"/>
-      <c r="B34" s="119" t="s">
+      <c r="B34" s="141" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="120"/>
+      <c r="C34" s="142"/>
       <c r="D34" s="108">
         <f>D32+D31+D30</f>
         <v>8969813.9399999995</v>
@@ -3406,17 +3348,27 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D37" s="111"/>
+      <c r="G37" s="60">
+        <f>D32+D31</f>
+        <v>2691483</v>
+      </c>
     </row>
     <row r="38" spans="1:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="121" t="s">
+      <c r="A38" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="121"/>
+      <c r="B38" s="143"/>
       <c r="C38" s="112"/>
-      <c r="G38" s="107"/>
+      <c r="G38" s="107">
+        <f>G37+D30</f>
+        <v>8969813.9399999995</v>
+      </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G39" s="107"/>
+      <c r="G39" s="107">
+        <f>G38*16.5%</f>
+        <v>1480019.3000999999</v>
+      </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G40" s="107"/>
@@ -3488,18 +3440,37 @@
       </c>
       <c r="E48" s="9"/>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D50" s="114"/>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C50" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="114">
+        <v>6497359</v>
+      </c>
       <c r="E50" s="9"/>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="E51" s="9"/>
+    </row>
+    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D52" s="114">
+        <f>D48-D50</f>
+        <v>1494840.0362661015</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="A38:B38"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
@@ -3512,11 +3483,6 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A38:B38"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3860,9 +3826,9 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="132"/>
-      <c r="B10" s="132"/>
-      <c r="C10" s="132"/>
+      <c r="A10" s="144"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="144"/>
     </row>
     <row r="11" spans="1:5" s="13" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="87"/>
@@ -3906,13 +3872,13 @@
       <c r="E15" s="17"/>
     </row>
     <row r="16" spans="1:5" s="13" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="123" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="131"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
+      <c r="B16" s="123"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="123"/>
+      <c r="E16" s="123"/>
     </row>
     <row r="17" spans="1:5" s="13" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A17" s="19"/>
@@ -4122,9 +4088,9 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="133"/>
-      <c r="B36" s="133"/>
-      <c r="C36" s="133"/>
+      <c r="A36" s="145"/>
+      <c r="B36" s="145"/>
+      <c r="C36" s="145"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C39" s="88">
@@ -4280,17 +4246,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="147" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="147"/>
     </row>
     <row r="2" spans="1:9" s="4" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -4930,14 +4896,14 @@
       </c>
     </row>
     <row r="22" spans="1:11" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="136" t="s">
+      <c r="A22" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="148"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="148"/>
       <c r="G22" s="78">
         <f>SUM(G3:G21)</f>
         <v>1319000</v>
@@ -4952,14 +4918,14 @@
       </c>
     </row>
     <row r="23" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="134" t="s">
+      <c r="A23" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="B23" s="134"/>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="146"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="146"/>
+      <c r="F23" s="146"/>
       <c r="G23" s="65">
         <f>G22*5%</f>
         <v>65950</v>
@@ -4974,14 +4940,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="134" t="s">
+      <c r="A24" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="B24" s="134"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="134"/>
-      <c r="E24" s="134"/>
-      <c r="F24" s="134"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="146"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="146"/>
+      <c r="F24" s="146"/>
       <c r="G24" s="65">
         <f>G22-G23</f>
         <v>1253050</v>
@@ -4996,14 +4962,14 @@
       </c>
     </row>
     <row r="25" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="146"/>
+      <c r="D25" s="146"/>
+      <c r="E25" s="146"/>
+      <c r="F25" s="146"/>
       <c r="G25" s="65">
         <v>0</v>
       </c>
@@ -5017,14 +4983,14 @@
       </c>
     </row>
     <row r="26" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="134" t="s">
+      <c r="A26" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="134"/>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
-      <c r="E26" s="134"/>
-      <c r="F26" s="134"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="146"/>
+      <c r="D26" s="146"/>
+      <c r="E26" s="146"/>
+      <c r="F26" s="146"/>
       <c r="G26" s="65">
         <f>G25+G24</f>
         <v>1253050</v>
@@ -5083,14 +5049,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="137" t="s">
+      <c r="A1" s="149" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="139"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="151"/>
     </row>
     <row r="2" spans="1:6" s="4" customFormat="1" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
@@ -5323,12 +5289,12 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
       <c r="E13" s="49"/>
       <c r="F13" s="54">
         <f>SUM(F3:F12)</f>
@@ -5336,26 +5302,26 @@
       </c>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="142" t="s">
+      <c r="A14" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="143"/>
-      <c r="C14" s="143"/>
-      <c r="D14" s="143"/>
-      <c r="E14" s="144"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="155"/>
+      <c r="D14" s="155"/>
+      <c r="E14" s="156"/>
       <c r="F14" s="54">
         <f>F13*5%</f>
         <v>32500</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="144"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="155"/>
+      <c r="D15" s="155"/>
+      <c r="E15" s="156"/>
       <c r="F15" s="54">
         <f>F13-F14</f>
         <v>617500</v>
@@ -5394,14 +5360,14 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="145" t="s">
+      <c r="A2" s="157" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="146"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="147"/>
+      <c r="B2" s="158"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="159"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
@@ -5550,12 +5516,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="39.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="142" t="s">
+      <c r="A10" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="155"/>
       <c r="E10" s="48"/>
       <c r="F10" s="47">
         <f>SUM(F2:F9)</f>
@@ -5563,26 +5529,26 @@
       </c>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="142" t="s">
+      <c r="A11" s="154" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="143"/>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="144"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="155"/>
+      <c r="D11" s="155"/>
+      <c r="E11" s="156"/>
       <c r="F11" s="54">
         <f>F10*5%</f>
         <v>24500</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="142" t="s">
+      <c r="A12" s="154" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="143"/>
-      <c r="C12" s="143"/>
-      <c r="D12" s="143"/>
-      <c r="E12" s="144"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="155"/>
+      <c r="D12" s="155"/>
+      <c r="E12" s="156"/>
       <c r="F12" s="54">
         <f>F10-F11</f>
         <v>465500</v>
@@ -5623,17 +5589,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="160" t="s">
         <v>107</v>
       </c>
-      <c r="B1" s="148"/>
-      <c r="C1" s="148"/>
-      <c r="D1" s="148"/>
-      <c r="E1" s="148"/>
-      <c r="F1" s="148"/>
-      <c r="G1" s="148"/>
-      <c r="H1" s="148"/>
-      <c r="I1" s="148"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
+      <c r="E1" s="160"/>
+      <c r="F1" s="160"/>
+      <c r="G1" s="160"/>
+      <c r="H1" s="160"/>
+      <c r="I1" s="160"/>
     </row>
     <row r="2" spans="1:11" s="4" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
@@ -6030,14 +5996,14 @@
       </c>
     </row>
     <row r="15" spans="1:11" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="134" t="s">
+      <c r="A15" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="134"/>
-      <c r="C15" s="134"/>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="146"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
       <c r="G15" s="59">
         <f>SUM(G4:G14)</f>
         <v>10390000</v>
@@ -6052,14 +6018,14 @@
       </c>
     </row>
     <row r="16" spans="1:11" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="134" t="s">
+      <c r="A16" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="134"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="134"/>
-      <c r="E16" s="134"/>
-      <c r="F16" s="134"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="146"/>
+      <c r="D16" s="146"/>
+      <c r="E16" s="146"/>
+      <c r="F16" s="146"/>
       <c r="G16" s="65">
         <f>G15*5%</f>
         <v>519500</v>
@@ -6074,14 +6040,14 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="134"/>
-      <c r="C17" s="134"/>
-      <c r="D17" s="134"/>
-      <c r="E17" s="134"/>
-      <c r="F17" s="134"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
+      <c r="E17" s="146"/>
+      <c r="F17" s="146"/>
       <c r="G17" s="65">
         <f>G15-G16</f>
         <v>9870500</v>
@@ -6096,14 +6062,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="65">
         <v>0</v>
       </c>
@@ -6117,14 +6083,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="65">
         <f>G18+G17</f>
         <v>9870500</v>
@@ -6722,14 +6688,14 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="146"/>
+      <c r="D18" s="146"/>
+      <c r="E18" s="146"/>
+      <c r="F18" s="146"/>
       <c r="G18" s="59">
         <f t="shared" ref="G18:H18" si="3">SUM(G3:G17)</f>
         <v>15647000</v>
@@ -6744,14 +6710,14 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="134" t="s">
+      <c r="A19" s="146" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="134"/>
-      <c r="C19" s="134"/>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="146"/>
+      <c r="D19" s="146"/>
+      <c r="E19" s="146"/>
+      <c r="F19" s="146"/>
       <c r="G19" s="65">
         <f>G18*5%</f>
         <v>782350</v>
@@ -6766,14 +6732,14 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="134" t="s">
+      <c r="A20" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="B20" s="134"/>
-      <c r="C20" s="134"/>
-      <c r="D20" s="134"/>
-      <c r="E20" s="134"/>
-      <c r="F20" s="134"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="146"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="146"/>
+      <c r="F20" s="146"/>
       <c r="G20" s="65">
         <f>G18-G19</f>
         <v>14864650</v>
@@ -6788,14 +6754,14 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="134" t="s">
+      <c r="A21" s="146" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="134"/>
-      <c r="C21" s="134"/>
-      <c r="D21" s="134"/>
-      <c r="E21" s="134"/>
-      <c r="F21" s="134"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="146"/>
+      <c r="D21" s="146"/>
+      <c r="E21" s="146"/>
+      <c r="F21" s="146"/>
       <c r="G21" s="65">
         <v>0</v>
       </c>
@@ -6809,14 +6775,14 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="134" t="s">
+      <c r="A22" s="146" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="134"/>
-      <c r="C22" s="134"/>
-      <c r="D22" s="134"/>
-      <c r="E22" s="134"/>
-      <c r="F22" s="134"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="146"/>
+      <c r="D22" s="146"/>
+      <c r="E22" s="146"/>
+      <c r="F22" s="146"/>
       <c r="G22" s="65">
         <f>G21+G20</f>
         <v>14864650</v>
